--- a/Documentation/White Box Testing.xlsx
+++ b/Documentation/White Box Testing.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="7140"/>
   </bookViews>
   <sheets>
-    <sheet name="Encryption" sheetId="1" r:id="rId1"/>
-    <sheet name="Decryption" sheetId="2" r:id="rId2"/>
+    <sheet name="Explaination" sheetId="3" r:id="rId1"/>
+    <sheet name="Encryption" sheetId="2" r:id="rId2"/>
+    <sheet name="Decryption" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="117">
   <si>
     <t>Graphical Enigma Simulator</t>
   </si>
@@ -39,12 +40,6 @@
     <t>This outputs shall be received from the console output.</t>
   </si>
   <si>
-    <t>Encryption (Decryption on sheet 2 of this document)</t>
-  </si>
-  <si>
-    <t>Decryption (Encryption on sheet 1 of this document)</t>
-  </si>
-  <si>
     <t>Test ID</t>
   </si>
   <si>
@@ -73,9 +68,6 @@
   </si>
   <si>
     <t>Expected Results</t>
-  </si>
-  <si>
-    <t>Current letter</t>
   </si>
   <si>
     <r>
@@ -110,14 +102,317 @@
     </r>
   </si>
   <si>
-    <t>Index of letter passed back to rotor</t>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BETA</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>TWO</t>
+  </si>
+  <si>
+    <t>FOUR</t>
+  </si>
+  <si>
+    <t>FIVE</t>
+  </si>
+  <si>
+    <t>SIX</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>ZERO</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Should follow sequence rotor key sequence</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>QAD</t>
+  </si>
+  <si>
+    <t>IJK</t>
+  </si>
+  <si>
+    <t>YLHI</t>
+  </si>
+  <si>
+    <t>UXE</t>
+  </si>
+  <si>
+    <t>KTAZ</t>
+  </si>
+  <si>
+    <t>PGS</t>
+  </si>
+  <si>
+    <t>OZJ</t>
+  </si>
+  <si>
+    <t>GVEQ</t>
+  </si>
+  <si>
+    <t>XVIM</t>
+  </si>
+  <si>
+    <t>NQC</t>
+  </si>
+  <si>
+    <t>MHX</t>
+  </si>
+  <si>
+    <t>BRNF</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>PLNO</t>
+  </si>
+  <si>
+    <t>IWR</t>
+  </si>
+  <si>
+    <t>EPPZ</t>
+  </si>
+  <si>
+    <t>NIX</t>
+  </si>
+  <si>
+    <t>KVR</t>
+  </si>
+  <si>
+    <t>VPDQ</t>
+  </si>
+  <si>
+    <t>SJRU</t>
+  </si>
+  <si>
+    <t>JSI</t>
+  </si>
+  <si>
+    <t>RRI</t>
+  </si>
+  <si>
+    <t>SPGC</t>
+  </si>
+  <si>
+    <t>FGH</t>
+  </si>
+  <si>
+    <t>PDJK</t>
+  </si>
+  <si>
+    <t>CEL</t>
+  </si>
+  <si>
+    <t>PIDL</t>
+  </si>
+  <si>
+    <t>QXH</t>
+  </si>
+  <si>
+    <t>YIR</t>
+  </si>
+  <si>
+    <t>XRKB</t>
+  </si>
+  <si>
+    <t>TTHA</t>
+  </si>
+  <si>
+    <t>PEU</t>
+  </si>
+  <si>
+    <t>MWU</t>
+  </si>
+  <si>
+    <t>KIVZ</t>
+  </si>
+  <si>
+    <t>WXY</t>
+  </si>
+  <si>
+    <t>BKRS</t>
+  </si>
+  <si>
+    <t>LTQ</t>
+  </si>
+  <si>
+    <t>RYXE</t>
+  </si>
+  <si>
+    <t>TZW</t>
+  </si>
+  <si>
+    <t>KJRG</t>
+  </si>
+  <si>
+    <t>Reflector Index</t>
+  </si>
+  <si>
+    <t>Index starts at 0</t>
+  </si>
+  <si>
+    <t>Encryption (Decryption on sheet 3 of this document)</t>
+  </si>
+  <si>
+    <t>Decryption (Encryption on sheet 2 of this document)</t>
+  </si>
+  <si>
+    <t>Rotor to reflector</t>
+  </si>
+  <si>
+    <t>Index of key passed back to rotor</t>
+  </si>
+  <si>
+    <t>Reflector index</t>
+  </si>
+  <si>
+    <t>Current key</t>
+  </si>
+  <si>
+    <t>This is the letter which has been pressed</t>
+  </si>
+  <si>
+    <t>This is the index of the letter which has been pressed</t>
+  </si>
+  <si>
+    <t>The letter is then mapped to rotor to find which letter on the rotor it maps to</t>
+  </si>
+  <si>
+    <t>This is the index of which the letter on the reflector is</t>
+  </si>
+  <si>
+    <t>This is the letter which the reflector produces from the given input from the rotor</t>
+  </si>
+  <si>
+    <t>This is the index of where the letter on the rotor will be, calculated from the given output of the reflector</t>
+  </si>
+  <si>
+    <t>This is the final output (encrypted/decrypted text)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +434,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CC33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -222,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -230,7 +543,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -244,6 +556,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,21 +874,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -548,7 +967,12 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -564,49 +988,4173 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>15</v>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="14">
+        <v>8</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="14">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="J9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="14">
+        <v>10</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="E12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14">
+        <v>19</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="14">
+        <v>24</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="E13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="14">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="14">
+        <v>11</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="E14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="14">
+        <v>18</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="14">
+        <v>7</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="E15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="14">
+        <v>19</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="14">
+        <v>8</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="E17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="14">
+        <v>20</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="E18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="14">
+        <v>23</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="E19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="14">
+        <v>4</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="E21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="14">
+        <v>10</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="E22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="14">
+        <v>4</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="14">
+        <v>18</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="E23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="14">
+        <v>19</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="E24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="14">
+        <v>25</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="E26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="14">
+        <v>14</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="14">
+        <v>15</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="E27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="14">
+        <v>13</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="14">
+        <v>6</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="E28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="14">
+        <v>4</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="14">
+        <v>18</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>6</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="D29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="E30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="14">
+        <v>19</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="14">
+        <v>14</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="E31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="14">
+        <v>22</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="14">
+        <v>25</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="E32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="14">
+        <v>14</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="14">
+        <v>9</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>7</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="E34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="14">
+        <v>5</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="14">
+        <v>6</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="E35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="14">
+        <v>14</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="14">
+        <v>21</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="E36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="14">
+        <v>20</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="14">
+        <v>4</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="E37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="14">
+        <v>17</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="14">
+        <v>16</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>8</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="E39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="14">
+        <v>5</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="14">
+        <v>23</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="E40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="14">
+        <v>8</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="14">
+        <v>21</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="E41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="14">
+        <v>21</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="14">
+        <v>8</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="E42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="14">
+        <v>4</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="14">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="J42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>9</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="E44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="14">
+        <v>18</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="14">
         <v>13</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J44" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="E45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="14">
+        <v>8</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="14">
+        <v>16</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="E46" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="14">
+        <v>23</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="14">
+        <v>2</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>10</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="E48" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="14">
+        <v>19</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="14">
+        <v>12</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="E49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="14">
+        <v>4</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="14">
+        <v>7</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="E50" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="14">
+        <v>13</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="14">
+        <v>23</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
         <v>11</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="B51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="E52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="14">
+        <v>25</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="14">
+        <v>1</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="E53" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="14">
+        <v>4</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="14">
+        <v>17</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="E54" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="14">
+        <v>17</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="14">
+        <v>13</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="E55" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="14">
         <v>14</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="G55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="14">
+        <v>5</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>12</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="E57" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="14">
+        <v>23</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="E58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="14">
+        <v>1</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="14">
+        <v>24</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="E59" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="14">
+        <v>2</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="14">
+        <v>25</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>13</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="E61" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="14">
+        <v>19</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" s="14">
+        <v>15</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="E62" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="14">
+        <v>4</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="14">
+        <v>11</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="E63" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="14">
+        <v>18</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="14">
+        <v>13</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="E64" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="14">
+        <v>19</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="14">
+        <v>14</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>14</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="E66" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" s="14">
+        <v>8</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+      <c r="E67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="14">
+        <v>0</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" s="14">
+        <v>22</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="E68" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="14">
+        <v>0</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="14">
+        <v>17</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>15</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="E70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="14">
+        <v>1</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" s="14">
+        <v>4</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="E71" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="14">
+        <v>4</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" s="14">
+        <v>15</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="E72" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="14">
+        <v>19</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="14">
+        <v>15</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="E73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="14">
+        <v>25</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>16</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="E75" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="14">
+        <v>14</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" s="14">
+        <v>13</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="E76" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="14">
+        <v>13</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="14">
+        <v>8</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="E77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="14">
+        <v>4</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="14">
+        <v>23</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>17</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="10"/>
+      <c r="E79" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="14">
+        <v>19</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="14">
         <v>10</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="J79" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+      <c r="E80" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="14">
+        <v>22</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I80" s="14">
+        <v>21</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="E81" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="14">
+        <v>14</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I81" s="14">
         <v>17</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>18</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="10"/>
+      <c r="E83" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="14">
+        <v>5</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="14">
+        <v>21</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="E84" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="14">
+        <v>14</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I84" s="14">
+        <v>15</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="E85" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="14">
+        <v>20</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="14">
+        <v>3</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="10"/>
+      <c r="E86" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="14">
+        <v>17</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" s="14">
+        <v>16</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>19</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="10"/>
+      <c r="E88" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="14">
+        <v>5</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" s="14">
+        <v>18</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="10"/>
+      <c r="E89" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="14">
+        <v>8</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I89" s="14">
+        <v>9</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="10"/>
+      <c r="E90" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="14">
+        <v>21</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" s="14">
+        <v>17</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="10"/>
+      <c r="E91" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="14">
+        <v>4</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" s="14">
+        <v>20</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>20</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="10"/>
+      <c r="E93" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="14">
+        <v>18</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I93" s="14">
+        <v>9</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="10"/>
+      <c r="E94" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="14">
+        <v>8</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" s="14">
+        <v>18</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="10"/>
+      <c r="E95" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" s="14">
+        <v>23</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" s="14">
+        <v>8</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>21</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="10"/>
+      <c r="E97" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="14">
+        <v>19</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I97" s="14">
+        <v>17</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="10"/>
+      <c r="E98" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="14">
+        <v>4</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="14">
+        <v>17</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="10"/>
+      <c r="E99" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" s="14">
+        <v>13</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" s="14">
+        <v>21</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>22</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="10"/>
+      <c r="E101" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101" s="14">
+        <v>25</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I101" s="14">
+        <v>18</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="10"/>
+      <c r="E102" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="14">
+        <v>4</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I102" s="14">
+        <v>15</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="10"/>
+      <c r="E103" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" s="14">
+        <v>17</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I103" s="14">
+        <v>6</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="10"/>
+      <c r="E104" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="14">
+        <v>14</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I104" s="14">
+        <v>2</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <v>23</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="10"/>
+      <c r="E106" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="14">
+        <v>0</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="14">
+        <v>5</v>
+      </c>
+      <c r="J106" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="10"/>
+      <c r="E107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="14">
+        <v>1</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="14">
+        <v>6</v>
+      </c>
+      <c r="J107" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
+      <c r="E108" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="14">
+        <v>2</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="14">
+        <v>7</v>
+      </c>
+      <c r="J108" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <v>24</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="10"/>
+      <c r="E110" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="14">
+        <v>19</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I110" s="14">
+        <v>15</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="10"/>
+      <c r="E111" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="14">
+        <v>4</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="14">
+        <v>3</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="10"/>
+      <c r="E112" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F112" s="14">
+        <v>18</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I112" s="14">
+        <v>9</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="10"/>
+      <c r="E113" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" s="14">
+        <v>19</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I113" s="14">
+        <v>10</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <v>25</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="10"/>
+      <c r="E115" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="14">
+        <v>0</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" s="14">
+        <v>2</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="10"/>
+      <c r="E116" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="14">
+        <v>0</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I116" s="14">
+        <v>4</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="10"/>
+      <c r="E117" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="14">
+        <v>0</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" s="14">
+        <v>11</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
+        <v>26</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="10"/>
+      <c r="E119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="14">
+        <v>1</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I119" s="14">
+        <v>15</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="10"/>
+      <c r="E120" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="14">
+        <v>4</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" s="14">
+        <v>8</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="10"/>
+      <c r="E121" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" s="14">
+        <v>19</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I121" s="14">
+        <v>3</v>
+      </c>
+      <c r="J121" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="10"/>
+      <c r="E122" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="14">
+        <v>0</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I122" s="14">
+        <v>11</v>
+      </c>
+      <c r="J122" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12">
+        <v>27</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="10"/>
+      <c r="E124" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="14">
+        <v>14</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I124" s="14">
+        <v>16</v>
+      </c>
+      <c r="J124" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="10"/>
+      <c r="E125" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" s="14">
+        <v>13</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="14">
+        <v>23</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="10"/>
+      <c r="E126" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="14">
+        <v>4</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" s="14">
+        <v>7</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12">
+        <v>28</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="10"/>
+      <c r="E128" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" s="14">
+        <v>19</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I128" s="14">
+        <v>24</v>
+      </c>
+      <c r="J128" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="10"/>
+      <c r="E129" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" s="14">
+        <v>22</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" s="14">
+        <v>8</v>
+      </c>
+      <c r="J129" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="10"/>
+      <c r="E130" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="14">
+        <v>14</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I130" s="14">
+        <v>17</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <v>29</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="10"/>
+      <c r="E132" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132" s="14">
+        <v>5</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="14">
+        <v>23</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="10"/>
+      <c r="E133" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="14">
+        <v>14</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I133" s="14">
+        <v>17</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="10"/>
+      <c r="E134" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" s="14">
+        <v>20</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I134" s="14">
+        <v>10</v>
+      </c>
+      <c r="J134" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="10"/>
+      <c r="E135" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F135" s="14">
+        <v>17</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135" s="14">
+        <v>1</v>
+      </c>
+      <c r="J135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
+        <v>30</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="10"/>
+      <c r="E137" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="14">
+        <v>5</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I137" s="14">
+        <v>19</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="10"/>
+      <c r="E138" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="14">
+        <v>8</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="14">
+        <v>19</v>
+      </c>
+      <c r="J138" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="10"/>
+      <c r="E139" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="14">
+        <v>21</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I139" s="14">
+        <v>7</v>
+      </c>
+      <c r="J139" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="10"/>
+      <c r="E140" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" s="14">
+        <v>4</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" s="14">
+        <v>0</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
+        <v>31</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="10"/>
+      <c r="E142" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" s="14">
+        <v>18</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I142" s="14">
+        <v>15</v>
+      </c>
+      <c r="J142" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="10"/>
+      <c r="E143" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="14">
+        <v>8</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I143" s="14">
+        <v>4</v>
+      </c>
+      <c r="J143" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L143" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="10"/>
+      <c r="E144" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F144" s="14">
+        <v>23</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I144" s="14">
+        <v>20</v>
+      </c>
+      <c r="J144" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
+        <v>32</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B146" s="10"/>
+      <c r="E146" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F146" s="14">
+        <v>19</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="14">
+        <v>12</v>
+      </c>
+      <c r="J146" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L146" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B147" s="10"/>
+      <c r="E147" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147" s="14">
+        <v>4</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I147" s="14">
+        <v>22</v>
+      </c>
+      <c r="J147" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="10"/>
+      <c r="E148" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F148" s="14">
+        <v>13</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" s="14">
+        <v>20</v>
+      </c>
+      <c r="J148" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>33</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B150" s="10"/>
+      <c r="E150" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F150" s="14">
+        <v>25</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I150" s="14">
+        <v>10</v>
+      </c>
+      <c r="J150" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L150" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B151" s="10"/>
+      <c r="E151" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F151" s="14">
+        <v>4</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I151" s="14">
+        <v>8</v>
+      </c>
+      <c r="J151" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L151" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B152" s="10"/>
+      <c r="E152" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F152" s="14">
+        <v>17</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I152" s="14">
+        <v>21</v>
+      </c>
+      <c r="J152" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B153" s="10"/>
+      <c r="E153" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F153" s="14">
+        <v>14</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I153" s="14">
+        <v>25</v>
+      </c>
+      <c r="J153" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L153" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <v>34</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="16"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B155" s="10"/>
+      <c r="E155" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="14">
+        <v>0</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I155" s="14">
+        <v>22</v>
+      </c>
+      <c r="J155" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K155" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L155" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B156" s="10"/>
+      <c r="E156" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="14">
+        <v>1</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I156" s="14">
+        <v>23</v>
+      </c>
+      <c r="J156" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="10"/>
+      <c r="E157" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="14">
+        <v>2</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I157" s="14">
+        <v>24</v>
+      </c>
+      <c r="J157" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L157" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
+        <v>35</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+      <c r="J158" s="16"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B159" s="10"/>
+      <c r="E159" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F159" s="14">
+        <v>19</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I159" s="14">
+        <v>1</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L159" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B160" s="10"/>
+      <c r="E160" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" s="14">
+        <v>4</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I160" s="14">
+        <v>10</v>
+      </c>
+      <c r="J160" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L160" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="10"/>
+      <c r="E161" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" s="14">
+        <v>18</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I161" s="14">
+        <v>17</v>
+      </c>
+      <c r="J161" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L161" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="10"/>
+      <c r="E162" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" s="14">
+        <v>19</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I162" s="14">
+        <v>18</v>
+      </c>
+      <c r="J162" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L162" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
+        <v>36</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="16"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="10"/>
+      <c r="E164" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" s="14">
+        <v>0</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" s="14">
+        <v>11</v>
+      </c>
+      <c r="J164" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L164" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="10"/>
+      <c r="E165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="14">
+        <v>0</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I165" s="14">
+        <v>19</v>
+      </c>
+      <c r="J165" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L165" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="10"/>
+      <c r="E166" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" s="14">
+        <v>0</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I166" s="14">
+        <v>16</v>
+      </c>
+      <c r="J166" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L166" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <v>37</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
+      <c r="J167" s="16"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="10"/>
+      <c r="E168" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" s="14">
+        <v>1</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="14">
+        <v>17</v>
+      </c>
+      <c r="J168" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L168" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="10"/>
+      <c r="E169" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F169" s="14">
+        <v>4</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I169" s="14">
+        <v>24</v>
+      </c>
+      <c r="J169" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L169" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="10"/>
+      <c r="E170" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" s="14">
+        <v>19</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I170" s="14">
+        <v>23</v>
+      </c>
+      <c r="J170" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L170" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="10"/>
+      <c r="E171" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="14">
+        <v>0</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I171" s="14">
+        <v>4</v>
+      </c>
+      <c r="J171" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L171" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>38</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="16"/>
+      <c r="J172" s="16"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="10"/>
+      <c r="E173" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F173" s="14">
+        <v>14</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I173" s="14">
+        <v>19</v>
+      </c>
+      <c r="J173" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L173" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="10"/>
+      <c r="E174" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F174" s="14">
+        <v>13</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I174" s="14">
+        <v>25</v>
+      </c>
+      <c r="J174" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="10"/>
+      <c r="E175" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" s="14">
+        <v>4</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I175" s="14">
+        <v>22</v>
+      </c>
+      <c r="J175" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L175" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
+        <v>39</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+      <c r="J176" s="16"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="10"/>
+      <c r="E177" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" s="14">
+        <v>19</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H177" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I177" s="14">
+        <v>16</v>
+      </c>
+      <c r="J177" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L177" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="10"/>
+      <c r="E178" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F178" s="14">
+        <v>22</v>
+      </c>
+      <c r="G178" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H178" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I178" s="14">
+        <v>0</v>
+      </c>
+      <c r="J178" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L178" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="10"/>
+      <c r="E179" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F179" s="14">
+        <v>14</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H179" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I179" s="14">
+        <v>3</v>
+      </c>
+      <c r="J179" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L179" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <v>40</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
+      <c r="J180" s="16"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="10"/>
+      <c r="E181" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F181" s="14">
+        <v>5</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I181" s="14">
+        <v>10</v>
+      </c>
+      <c r="J181" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L181" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="10"/>
+      <c r="E182" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" s="14">
+        <v>14</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I182" s="14">
+        <v>9</v>
+      </c>
+      <c r="J182" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L182" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="10"/>
+      <c r="E183" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F183" s="14">
+        <v>20</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H183" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I183" s="14">
+        <v>17</v>
+      </c>
+      <c r="J183" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L183" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="10"/>
+      <c r="E184" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F184" s="14">
+        <v>17</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I184" s="14">
+        <v>6</v>
+      </c>
+      <c r="J184" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L184" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -615,34 +5163,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -653,52 +5208,4742 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="15"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14">
+        <v>8</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="14">
+        <v>4</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="14">
+        <v>9</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="14">
+        <v>4</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="E10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="14">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="14">
+        <v>4</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="14">
+        <v>2</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="E12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="14">
+        <v>24</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="14">
+        <v>15</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="14">
+        <v>19</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="E13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="14">
+        <v>11</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="14">
+        <v>5</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="14">
+        <v>4</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="E14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="14">
+        <v>7</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="14">
+        <v>23</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="14">
+        <v>18</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14">
+        <v>8</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="14">
+        <v>23</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="14">
+        <v>19</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="E17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="14">
+        <v>20</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="14">
+        <v>4</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="E18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="14">
+        <v>23</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="14">
+        <v>9</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="E19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="14">
+        <v>4</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="14">
+        <v>2</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="E21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="14">
+        <v>10</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="14">
+        <v>10</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="E22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="14">
+        <v>18</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="14">
+        <v>5</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="14">
+        <v>4</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="E23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="14">
+        <v>20</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="14">
+        <v>19</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="E24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="14">
+        <v>25</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="14">
+        <v>17</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="E26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="14">
+        <v>15</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="14">
+        <v>24</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="14">
+        <v>14</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="E27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="14">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="14">
+        <v>14</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="14">
+        <v>13</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="E28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="14">
+        <v>18</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="14">
+        <v>12</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="14">
+        <v>4</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>6</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="E30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="14">
+        <v>14</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="14">
+        <v>13</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="14">
+        <v>19</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="E31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="14">
+        <v>25</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="14">
+        <v>24</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="14">
+        <v>22</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="E32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="14">
+        <v>9</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="14">
+        <v>22</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="14">
+        <v>14</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="E34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="14">
+        <v>6</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="14">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="14">
+        <v>5</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="E35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="14">
+        <v>21</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="14">
+        <v>19</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="14">
+        <v>14</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="E36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="14">
+        <v>25</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="14">
+        <v>20</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="E37" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="14">
+        <v>16</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="14">
+        <v>12</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="14">
+        <v>17</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>8</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="E39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="14">
+        <v>23</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="14">
+        <v>8</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="14">
+        <v>5</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="E40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="14">
+        <v>21</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="14">
+        <v>20</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="14">
+        <v>8</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="E41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="14">
+        <v>8</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="14">
+        <v>13</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="14">
+        <v>21</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="E42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="14">
+        <v>12</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="14">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="I42" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" s="14">
+        <v>4</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>9</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="E44" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="14">
+        <v>13</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="14">
+        <v>25</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="14">
+        <v>18</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="E45" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="14">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="14">
+        <v>20</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="14">
+        <v>8</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="E46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="14">
+        <v>2</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="14">
+        <v>24</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="14">
+        <v>23</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>10</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="E48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="14">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G48" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="14">
         <v>13</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I48" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="14">
+        <v>19</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="E49" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="14">
+        <v>7</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="14">
+        <v>10</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="14">
+        <v>4</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="E50" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="14">
+        <v>23</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="14">
+        <v>7</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="14">
+        <v>13</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
         <v>11</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="B51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="E52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="14">
         <v>14</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="I52" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" s="14">
+        <v>25</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="E53" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="14">
+        <v>17</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="14">
+        <v>7</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="14">
+        <v>4</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="E54" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="14">
+        <v>13</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="14">
+        <v>4</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="14">
+        <v>17</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="E55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="14">
+        <v>5</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="14">
+        <v>21</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="14">
+        <v>14</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>12</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="E57" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="14">
+        <v>23</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="14">
+        <v>1</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="E58" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="14">
+        <v>24</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="14">
+        <v>1</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="14">
+        <v>1</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="E59" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="14">
+        <v>25</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="14">
+        <v>1</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="14">
+        <v>2</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>13</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="E61" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="14">
+        <v>15</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="14">
+        <v>19</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="E62" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="14">
+        <v>11</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" s="14">
+        <v>7</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" s="14">
+        <v>4</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="E63" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="14">
+        <v>13</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="14">
+        <v>8</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="14">
+        <v>18</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="E64" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="14">
+        <v>14</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="14">
+        <v>8</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="14">
+        <v>19</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>14</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="E66" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="14">
+        <v>8</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" s="14">
+        <v>1</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="14">
+        <v>0</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+      <c r="E67" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="14">
+        <v>22</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="14">
+        <v>14</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="E68" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="14">
+        <v>17</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="14">
+        <v>16</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>15</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="E70" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="14">
+        <v>4</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" s="14">
+        <v>3</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J70" s="14">
+        <v>1</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="E71" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="14">
+        <v>15</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" s="14">
+        <v>7</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J71" s="14">
+        <v>4</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="E72" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="14">
+        <v>15</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="14">
+        <v>22</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" s="14">
+        <v>19</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="E73" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="14">
+        <v>25</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="14">
+        <v>18</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" s="14">
+        <v>0</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>16</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="E75" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="14">
+        <v>13</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H75" s="14">
+        <v>23</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J75" s="14">
+        <v>14</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="E76" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="14">
+        <v>8</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="14">
+        <v>17</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="14">
+        <v>13</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="E77" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" s="14">
+        <v>23</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H77" s="14">
+        <v>14</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="14">
+        <v>4</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>17</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="10"/>
+      <c r="E79" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="14">
         <v>10</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="G79" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" s="14">
+        <v>6</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J79" s="14">
+        <v>19</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+      <c r="E80" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="14">
+        <v>21</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H80" s="14">
+        <v>3</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J80" s="14">
+        <v>22</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="E81" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="14">
         <v>17</v>
       </c>
+      <c r="G81" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" s="14">
+        <v>17</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="14">
+        <v>14</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>18</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="10"/>
+      <c r="E83" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="14">
+        <v>21</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="14">
+        <v>25</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J83" s="14">
+        <v>5</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="E84" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="14">
+        <v>15</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H84" s="14">
+        <v>7</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J84" s="14">
+        <v>14</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="E85" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="14">
+        <v>3</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="14">
+        <v>19</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" s="14">
+        <v>20</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="10"/>
+      <c r="E86" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="14">
+        <v>16</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H86" s="14">
+        <v>23</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J86" s="14">
+        <v>17</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>19</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="10"/>
+      <c r="E88" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="14">
+        <v>18</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H88" s="14">
+        <v>25</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J88" s="14">
+        <v>5</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="10"/>
+      <c r="E89" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89" s="14">
+        <v>9</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="14">
+        <v>0</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="14">
+        <v>8</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="10"/>
+      <c r="E90" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="14">
+        <v>17</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="14">
+        <v>6</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J90" s="14">
+        <v>21</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="10"/>
+      <c r="E91" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="14">
+        <v>20</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" s="14">
+        <v>18</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J91" s="14">
+        <v>4</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>20</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="10"/>
+      <c r="E93" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" s="14">
+        <v>9</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H93" s="14">
+        <v>19</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J93" s="14">
+        <v>18</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="10"/>
+      <c r="E94" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="14">
+        <v>18</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" s="14">
+        <v>0</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="14">
+        <v>8</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="10"/>
+      <c r="E95" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="14">
+        <v>8</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H95" s="14">
+        <v>3</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J95" s="14">
+        <v>23</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>21</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="10"/>
+      <c r="E97" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" s="14">
+        <v>17</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" s="14">
+        <v>9</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J97" s="14">
+        <v>19</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="10"/>
+      <c r="E98" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="14">
+        <v>17</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="14">
+        <v>17</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J98" s="14">
+        <v>4</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="10"/>
+      <c r="E99" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="14">
+        <v>21</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" s="14">
+        <v>3</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J99" s="14">
+        <v>13</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>22</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="10"/>
+      <c r="E101" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101" s="14">
+        <v>18</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H101" s="14">
+        <v>10</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" s="14">
+        <v>25</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="10"/>
+      <c r="E102" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="14">
+        <v>15</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" s="14">
+        <v>17</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J102" s="14">
+        <v>4</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="10"/>
+      <c r="E103" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" s="14">
+        <v>6</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="14">
+        <v>23</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J103" s="14">
+        <v>17</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="10"/>
+      <c r="E104" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="14">
+        <v>2</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H104" s="14">
+        <v>3</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J104" s="14">
+        <v>14</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <v>23</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="10"/>
+      <c r="E106" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" s="14">
+        <v>5</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="14">
+        <v>21</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106" s="14">
+        <v>0</v>
+      </c>
+      <c r="K106" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="10"/>
+      <c r="E107" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="14">
+        <v>6</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="14">
+        <v>21</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J107" s="14">
+        <v>1</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
+      <c r="E108" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F108" s="14">
+        <v>7</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="14">
+        <v>21</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J108" s="14">
+        <v>2</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <v>24</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="10"/>
+      <c r="E110" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F110" s="14">
+        <v>15</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H110" s="14">
+        <v>9</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J110" s="14">
+        <v>19</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="10"/>
+      <c r="E111" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F111" s="14">
+        <v>3</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="14">
+        <v>17</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J111" s="14">
+        <v>4</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="10"/>
+      <c r="E112" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F112" s="14">
+        <v>9</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H112" s="14">
+        <v>0</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" s="14">
+        <v>18</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="10"/>
+      <c r="E113" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F113" s="14">
+        <v>10</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H113" s="14">
+        <v>0</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" s="14">
+        <v>19</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <v>25</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="10"/>
+      <c r="E115" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="14">
+        <v>2</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="14">
+        <v>21</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115" s="14">
+        <v>0</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="10"/>
+      <c r="E116" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="14">
+        <v>4</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H116" s="14">
+        <v>10</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J116" s="14">
+        <v>0</v>
+      </c>
+      <c r="K116" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="10"/>
+      <c r="E117" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="14">
+        <v>11</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H117" s="14">
+        <v>3</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" s="14">
+        <v>0</v>
+      </c>
+      <c r="K117" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
+        <v>26</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="10"/>
+      <c r="E119" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" s="14">
+        <v>15</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H119" s="14">
+        <v>15</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J119" s="14">
+        <v>1</v>
+      </c>
+      <c r="K119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="10"/>
+      <c r="E120" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="14">
+        <v>8</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" s="14">
+        <v>21</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J120" s="14">
+        <v>4</v>
+      </c>
+      <c r="K120" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="10"/>
+      <c r="E121" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F121" s="14">
+        <v>3</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H121" s="14">
+        <v>10</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J121" s="14">
+        <v>19</v>
+      </c>
+      <c r="K121" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="10"/>
+      <c r="E122" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="14">
+        <v>11</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H122" s="14">
+        <v>3</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J122" s="14">
+        <v>0</v>
+      </c>
+      <c r="K122" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12">
+        <v>27</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="10"/>
+      <c r="E124" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F124" s="14">
+        <v>16</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H124" s="14">
+        <v>25</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J124" s="14">
+        <v>14</v>
+      </c>
+      <c r="K124" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="10"/>
+      <c r="E125" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F125" s="14">
+        <v>23</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="14">
+        <v>13</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J125" s="14">
+        <v>13</v>
+      </c>
+      <c r="K125" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="10"/>
+      <c r="E126" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F126" s="14">
+        <v>7</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H126" s="14">
+        <v>6</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J126" s="14">
+        <v>4</v>
+      </c>
+      <c r="K126" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M126" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12">
+        <v>28</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="10"/>
+      <c r="E128" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F128" s="14">
+        <v>24</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H128" s="14">
+        <v>18</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J128" s="14">
+        <v>19</v>
+      </c>
+      <c r="K128" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M128" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="10"/>
+      <c r="E129" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="14">
+        <v>8</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H129" s="14">
+        <v>11</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J129" s="14">
+        <v>22</v>
+      </c>
+      <c r="K129" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M129" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="10"/>
+      <c r="E130" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F130" s="14">
+        <v>17</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" s="14">
+        <v>13</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J130" s="14">
+        <v>14</v>
+      </c>
+      <c r="K130" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <v>29</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="10"/>
+      <c r="E132" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F132" s="14">
+        <v>23</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" s="14">
+        <v>20</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J132" s="14">
+        <v>5</v>
+      </c>
+      <c r="K132" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M132" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B133" s="10"/>
+      <c r="E133" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F133" s="14">
+        <v>17</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H133" s="14">
+        <v>7</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J133" s="14">
+        <v>14</v>
+      </c>
+      <c r="K133" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M133" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="10"/>
+      <c r="E134" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F134" s="14">
+        <v>10</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H134" s="14">
+        <v>0</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" s="14">
+        <v>20</v>
+      </c>
+      <c r="K134" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="10"/>
+      <c r="E135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="14">
+        <v>1</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H135" s="14">
+        <v>25</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J135" s="14">
+        <v>17</v>
+      </c>
+      <c r="K135" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
+        <v>30</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="10"/>
+      <c r="E137" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F137" s="14">
+        <v>19</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H137" s="14">
+        <v>20</v>
+      </c>
+      <c r="I137" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J137" s="14">
+        <v>5</v>
+      </c>
+      <c r="K137" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B138" s="10"/>
+      <c r="E138" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" s="14">
+        <v>19</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="14">
+        <v>5</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J138" s="14">
+        <v>8</v>
+      </c>
+      <c r="K138" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B139" s="10"/>
+      <c r="E139" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F139" s="14">
+        <v>7</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H139" s="14">
+        <v>18</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J139" s="14">
+        <v>21</v>
+      </c>
+      <c r="K139" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M139" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B140" s="10"/>
+      <c r="E140" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="14">
+        <v>0</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" s="14">
+        <v>15</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J140" s="14">
+        <v>4</v>
+      </c>
+      <c r="K140" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
+        <v>31</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B142" s="10"/>
+      <c r="E142" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F142" s="14">
+        <v>15</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H142" s="14">
+        <v>21</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J142" s="14">
+        <v>18</v>
+      </c>
+      <c r="K142" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="10"/>
+      <c r="E143" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" s="14">
+        <v>4</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H143" s="14">
+        <v>23</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J143" s="14">
+        <v>8</v>
+      </c>
+      <c r="K143" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M143" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="10"/>
+      <c r="E144" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="14">
+        <v>20</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" s="14">
+        <v>4</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J144" s="14">
+        <v>23</v>
+      </c>
+      <c r="K144" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
+        <v>32</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="16"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B146" s="10"/>
+      <c r="E146" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F146" s="14">
+        <v>12</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" s="14">
+        <v>11</v>
+      </c>
+      <c r="I146" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J146" s="14">
+        <v>19</v>
+      </c>
+      <c r="K146" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M146" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="10"/>
+      <c r="E147" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" s="14">
+        <v>22</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H147" s="14">
+        <v>7</v>
+      </c>
+      <c r="I147" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J147" s="14">
+        <v>4</v>
+      </c>
+      <c r="K147" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B148" s="10"/>
+      <c r="E148" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148" s="14">
+        <v>20</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" s="14">
+        <v>22</v>
+      </c>
+      <c r="I148" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J148" s="14">
+        <v>13</v>
+      </c>
+      <c r="K148" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M148" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>33</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="16"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B150" s="10"/>
+      <c r="E150" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F150" s="14">
+        <v>10</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H150" s="14">
+        <v>19</v>
+      </c>
+      <c r="I150" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J150" s="14">
+        <v>25</v>
+      </c>
+      <c r="K150" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M150" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B151" s="10"/>
+      <c r="E151" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="14">
+        <v>8</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H151" s="14">
+        <v>7</v>
+      </c>
+      <c r="I151" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J151" s="14">
+        <v>4</v>
+      </c>
+      <c r="K151" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M151" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B152" s="10"/>
+      <c r="E152" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" s="14">
+        <v>21</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H152" s="14">
+        <v>5</v>
+      </c>
+      <c r="I152" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J152" s="14">
+        <v>17</v>
+      </c>
+      <c r="K152" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B153" s="10"/>
+      <c r="E153" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F153" s="14">
+        <v>25</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H153" s="14">
+        <v>22</v>
+      </c>
+      <c r="I153" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J153" s="14">
+        <v>14</v>
+      </c>
+      <c r="K153" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M153" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <v>34</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="16"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B155" s="10"/>
+      <c r="E155" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F155" s="14">
+        <v>22</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H155" s="14">
+        <v>13</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J155" s="14">
+        <v>0</v>
+      </c>
+      <c r="K155" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L155" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B156" s="10"/>
+      <c r="E156" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F156" s="14">
+        <v>23</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H156" s="14">
+        <v>13</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J156" s="14">
+        <v>1</v>
+      </c>
+      <c r="K156" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M156" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B157" s="10"/>
+      <c r="E157" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F157" s="14">
+        <v>24</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H157" s="14">
+        <v>13</v>
+      </c>
+      <c r="I157" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J157" s="14">
+        <v>2</v>
+      </c>
+      <c r="K157" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M157" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
+        <v>35</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="16"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B159" s="10"/>
+      <c r="E159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="14">
+        <v>1</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H159" s="14">
+        <v>11</v>
+      </c>
+      <c r="I159" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J159" s="14">
+        <v>19</v>
+      </c>
+      <c r="K159" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M159" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B160" s="10"/>
+      <c r="E160" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F160" s="14">
+        <v>10</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H160" s="14">
+        <v>7</v>
+      </c>
+      <c r="I160" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J160" s="14">
+        <v>4</v>
+      </c>
+      <c r="K160" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M160" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B161" s="10"/>
+      <c r="E161" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F161" s="14">
+        <v>17</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H161" s="14">
+        <v>0</v>
+      </c>
+      <c r="I161" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" s="14">
+        <v>18</v>
+      </c>
+      <c r="K161" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M161" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B162" s="10"/>
+      <c r="E162" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" s="14">
+        <v>18</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H162" s="14">
+        <v>0</v>
+      </c>
+      <c r="I162" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" s="14">
+        <v>19</v>
+      </c>
+      <c r="K162" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M162" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
+        <v>36</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="16"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B164" s="10"/>
+      <c r="E164" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F164" s="14">
+        <v>11</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" s="14">
+        <v>11</v>
+      </c>
+      <c r="I164" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J164" s="14">
+        <v>0</v>
+      </c>
+      <c r="K164" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M164" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B165" s="10"/>
+      <c r="E165" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F165" s="14">
+        <v>19</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H165" s="14">
+        <v>18</v>
+      </c>
+      <c r="I165" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J165" s="14">
+        <v>0</v>
+      </c>
+      <c r="K165" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M165" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B166" s="10"/>
+      <c r="E166" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F166" s="14">
+        <v>16</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H166" s="14">
+        <v>14</v>
+      </c>
+      <c r="I166" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J166" s="14">
+        <v>0</v>
+      </c>
+      <c r="K166" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M166" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <v>37</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="16"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B168" s="10"/>
+      <c r="E168" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F168" s="14">
+        <v>17</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" s="14">
+        <v>4</v>
+      </c>
+      <c r="I168" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J168" s="14">
+        <v>1</v>
+      </c>
+      <c r="K168" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M168" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B169" s="10"/>
+      <c r="E169" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F169" s="14">
+        <v>24</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H169" s="14">
+        <v>9</v>
+      </c>
+      <c r="I169" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J169" s="14">
+        <v>4</v>
+      </c>
+      <c r="K169" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M169" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B170" s="10"/>
+      <c r="E170" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F170" s="14">
+        <v>23</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H170" s="14">
+        <v>0</v>
+      </c>
+      <c r="I170" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J170" s="14">
+        <v>19</v>
+      </c>
+      <c r="K170" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M170" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B171" s="10"/>
+      <c r="E171" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F171" s="14">
+        <v>4</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H171" s="14">
+        <v>7</v>
+      </c>
+      <c r="I171" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J171" s="14">
+        <v>0</v>
+      </c>
+      <c r="K171" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M171" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>38</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="16"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="16"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B173" s="10"/>
+      <c r="E173" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F173" s="14">
+        <v>19</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H173" s="14">
+        <v>4</v>
+      </c>
+      <c r="I173" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J173" s="14">
+        <v>14</v>
+      </c>
+      <c r="K173" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M173" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B174" s="10"/>
+      <c r="E174" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F174" s="14">
+        <v>25</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174" s="14">
+        <v>16</v>
+      </c>
+      <c r="I174" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J174" s="14">
+        <v>13</v>
+      </c>
+      <c r="K174" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B175" s="10"/>
+      <c r="E175" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F175" s="14">
+        <v>22</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H175" s="14">
+        <v>24</v>
+      </c>
+      <c r="I175" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J175" s="14">
+        <v>4</v>
+      </c>
+      <c r="K175" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M175" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
+        <v>39</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="16"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B177" s="10"/>
+      <c r="E177" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F177" s="14">
+        <v>16</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H177" s="14">
+        <v>25</v>
+      </c>
+      <c r="I177" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J177" s="14">
+        <v>19</v>
+      </c>
+      <c r="K177" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M177" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B178" s="10"/>
+      <c r="E178" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178" s="14">
+        <v>0</v>
+      </c>
+      <c r="G178" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H178" s="14">
+        <v>5</v>
+      </c>
+      <c r="I178" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J178" s="14">
+        <v>22</v>
+      </c>
+      <c r="K178" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M178" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B179" s="10"/>
+      <c r="E179" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F179" s="14">
+        <v>3</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H179" s="14">
+        <v>16</v>
+      </c>
+      <c r="I179" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J179" s="14">
+        <v>14</v>
+      </c>
+      <c r="K179" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M179" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <v>40</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="16"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B181" s="10"/>
+      <c r="E181" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F181" s="14">
+        <v>10</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H181" s="14">
+        <v>3</v>
+      </c>
+      <c r="I181" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J181" s="14">
+        <v>5</v>
+      </c>
+      <c r="K181" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M181" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B182" s="10"/>
+      <c r="E182" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F182" s="14">
+        <v>9</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H182" s="14">
+        <v>12</v>
+      </c>
+      <c r="I182" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J182" s="14">
+        <v>14</v>
+      </c>
+      <c r="K182" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M182" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B183" s="10"/>
+      <c r="E183" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F183" s="14">
+        <v>17</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H183" s="14">
+        <v>10</v>
+      </c>
+      <c r="I183" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J183" s="14">
+        <v>20</v>
+      </c>
+      <c r="K183" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M183" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B184" s="10"/>
+      <c r="E184" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F184" s="14">
+        <v>6</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H184" s="14">
+        <v>4</v>
+      </c>
+      <c r="I184" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J184" s="14">
+        <v>17</v>
+      </c>
+      <c r="K184" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M184" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B185" s="10"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B186" s="10"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B187" s="10"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B188" s="10"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B189" s="10"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B190" s="10"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B191" s="10"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B192" s="10"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="10"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="10"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="10"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="10"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="10"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="10"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="10"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="10"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="10"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="10"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="10"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="10"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="10"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="10"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="10"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="10"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="10"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="10"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="10"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="10"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="10"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="10"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="10"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="10"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="10"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="10"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="10"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
